--- a/models/data_set1/set1_models_comparison.xlsx
+++ b/models/data_set1/set1_models_comparison.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christer\Python_projects\B.S.-Thesis\models\data_set6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christer\Python_projects\B.S.-Thesis\models\data_set1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CB2A7F-8E03-4495-9BC2-912230CE455A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277D98A6-3E2C-4DB1-A02D-F5B5D17F5AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31590" yWindow="525" windowWidth="20445" windowHeight="14115" xr2:uid="{ABE95A68-2D0F-42A7-8ED6-86D788EDBEAB}"/>
+    <workbookView xWindow="5715" yWindow="1755" windowWidth="20430" windowHeight="14115" xr2:uid="{ABE95A68-2D0F-42A7-8ED6-86D788EDBEAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,12 +58,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>MAE</t>
   </si>
   <si>
     <t>diff</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>line</t>
   </si>
 </sst>
 </file>
@@ -151,7 +157,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
+              <c:f>Sheet1!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -170,6 +176,27 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$I$2:$M$2</c:f>
@@ -209,32 +236,329 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
         <c:axId val="1057531184"/>
         <c:axId val="1057533680"/>
       </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>line</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.15407425357429821"/>
+                  <c:y val="-3.009241032370958E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>Average = 16.05</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-SE"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.50536304156516632"/>
+                      <c:h val="9.7152960046660811E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-61A1-4E2C-B49C-6AE531CEDE5D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-SE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$2:$R$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16.047510149071226</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.047510149071226</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.047510149071226</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.047510149071226</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.047510149071226</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-61A1-4E2C-B49C-6AE531CEDE5D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1057531184"/>
+        <c:axId val="1057533680"/>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="1057531184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fi-FI"/>
+                  <a:t>Model</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SE"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="1057533680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="1057533680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="10"/>
+          <c:min val="13"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1270,15 +1594,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AEAF74F-599C-45DC-A89F-88105B6B675F}">
-  <dimension ref="A1:M194"/>
+  <dimension ref="A1:R194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1297,7 +1621,7 @@
       <c r="F1">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>0</v>
       </c>
       <c r="I1">
@@ -1315,8 +1639,14 @@
       <c r="M1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>112.396484375</v>
       </c>
@@ -1352,8 +1682,18 @@
         <f t="array" ref="M2">SUMPRODUCT(ABS(B2:B194))/COUNT(B2:B194)</f>
         <v>17.497210547096348</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O2">
+        <f>AVERAGE(I2:M2)</f>
+        <v>16.047510149071226</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>16.047510149071226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>9.7575607299804119</v>
       </c>
@@ -1369,8 +1709,14 @@
       <c r="F3">
         <v>25.109992980957003</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q3">
+        <v>6</v>
+      </c>
+      <c r="R3">
+        <v>16.047510149071226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>-6.4032897949218039</v>
       </c>
@@ -1386,8 +1732,11 @@
       <c r="F4">
         <v>4.6604385375976989</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R4">
+        <v>16.047510149071226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>-20.892845153809006</v>
       </c>
@@ -1403,8 +1752,11 @@
       <c r="F5">
         <v>-5.0528182983400001</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R5">
+        <v>16.047510149071226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>9.8274230956995723E-2</v>
       </c>
@@ -1420,8 +1772,11 @@
       <c r="F6">
         <v>1.9209861755371023</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R6">
+        <v>16.047510149071226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>-11.860763549805</v>
       </c>
@@ -1437,8 +1792,11 @@
       <c r="F7">
         <v>-14.762329101562983</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R7">
+        <v>16.047510149071226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>13.893417358397997</v>
       </c>
@@ -1454,8 +1812,11 @@
       <c r="F8">
         <v>25.5498046875</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R8">
+        <v>16.047510149071226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>0.361343383789062</v>
       </c>
@@ -1472,7 +1833,7 @@
         <v>-0.78188323974609297</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>-6.2834625244140057</v>
       </c>
@@ -1489,7 +1850,7 @@
         <v>-5.7551498413090059</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>346.84626770019469</v>
       </c>
@@ -1506,7 +1867,7 @@
         <v>163.88380432128901</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>-118.78606414794891</v>
       </c>
@@ -1523,7 +1884,7 @@
         <v>-111.33699798583891</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>-57.406311035156989</v>
       </c>
@@ -1540,7 +1901,7 @@
         <v>-38.337112426758011</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>12.485847473143991</v>
       </c>
@@ -1557,7 +1918,7 @@
         <v>12.543052673338991</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>19.186157226561988</v>
       </c>
@@ -1574,7 +1935,7 @@
         <v>15.280120849609006</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>-0.56013488769529829</v>
       </c>

--- a/models/data_set1/set1_models_comparison.xlsx
+++ b/models/data_set1/set1_models_comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christer\Python_projects\B.S.-Thesis\models\data_set1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277D98A6-3E2C-4DB1-A02D-F5B5D17F5AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F674576C-5FD5-4330-89B8-CB48D574CE64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5715" yWindow="1755" windowWidth="20430" windowHeight="14115" xr2:uid="{ABE95A68-2D0F-42A7-8ED6-86D788EDBEAB}"/>
+    <workbookView xWindow="29085" yWindow="1785" windowWidth="20430" windowHeight="14115" xr2:uid="{ABE95A68-2D0F-42A7-8ED6-86D788EDBEAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>MAE</t>
   </si>
@@ -70,6 +70,18 @@
   </si>
   <si>
     <t>line</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
+  <si>
+    <t>mae stdev</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>rmse stdev</t>
   </si>
 </sst>
 </file>
@@ -1596,11 +1608,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AEAF74F-599C-45DC-A89F-88105B6B675F}">
   <dimension ref="A1:R194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1732,6 +1747,33 @@
       <c r="F4">
         <v>4.6604385375976989</v>
       </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <f>SQRT(SUMSQ(D2:D194)/COUNTA(D2:D194))</f>
+        <v>27.674238309065341</v>
+      </c>
+      <c r="J4">
+        <f>SQRT(SUMSQ(F2:F194)/COUNTA(F2:F194))</f>
+        <v>31.655003222660195</v>
+      </c>
+      <c r="K4">
+        <f>SQRT(SUMSQ(E2:E194)/COUNTA(E2:E194))</f>
+        <v>34.415751681661703</v>
+      </c>
+      <c r="L4">
+        <f>SQRT(SUMSQ(C2:C194)/COUNTA(C2:C194))</f>
+        <v>40.887221277235334</v>
+      </c>
+      <c r="M4">
+        <f>SQRT(SUMSQ(B2:B194)/COUNTA(B2:B194))</f>
+        <v>42.822898086893687</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O3:O4" si="0">AVERAGE(I4:M4)</f>
+        <v>35.491022515503253</v>
+      </c>
       <c r="R4">
         <v>16.047510149071226</v>
       </c>
@@ -1792,6 +1834,12 @@
       <c r="F7">
         <v>-14.762329101562983</v>
       </c>
+      <c r="N7" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" t="s">
+        <v>6</v>
+      </c>
       <c r="R7">
         <v>16.047510149071226</v>
       </c>
@@ -1812,6 +1860,14 @@
       <c r="F8">
         <v>25.5498046875</v>
       </c>
+      <c r="N8">
+        <f>_xlfn.STDEV.P(I2:M2)</f>
+        <v>1.1575186060770337</v>
+      </c>
+      <c r="O8">
+        <f>2*N8</f>
+        <v>2.3150372121540674</v>
+      </c>
       <c r="R8">
         <v>16.047510149071226</v>
       </c>
@@ -1832,6 +1888,12 @@
       <c r="F9">
         <v>-0.78188323974609297</v>
       </c>
+      <c r="N9" t="s">
+        <v>7</v>
+      </c>
+      <c r="O9" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10">
@@ -1848,6 +1910,14 @@
       </c>
       <c r="F10">
         <v>-5.7551498413090059</v>
+      </c>
+      <c r="N10">
+        <f t="shared" ref="N9:N10" si="1">_xlfn.STDEV.P(I4:M4)</f>
+        <v>5.6541794662295874</v>
+      </c>
+      <c r="O10">
+        <f t="shared" ref="O9:O10" si="2">2*N10</f>
+        <v>11.308358932459175</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">

--- a/models/data_set1/set1_models_comparison.xlsx
+++ b/models/data_set1/set1_models_comparison.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christer\Python_projects\B.S.-Thesis\models\data_set1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlc\OneDrive\Desktop\B.S.-Thesis\models\data_set1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F674576C-5FD5-4330-89B8-CB48D574CE64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6A71D6-1218-430B-B750-3C27ED5BAF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29085" yWindow="1785" windowWidth="20430" windowHeight="14115" xr2:uid="{ABE95A68-2D0F-42A7-8ED6-86D788EDBEAB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ABE95A68-2D0F-42A7-8ED6-86D788EDBEAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -146,7 +146,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -350,7 +350,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-SE"/>
+                  <a:endParaRPr lang="en-FI"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -400,7 +400,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-SE"/>
+                <a:endParaRPr lang="en-FI"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -517,7 +517,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-SE"/>
+              <a:endParaRPr lang="en-FI"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -555,7 +555,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-SE"/>
+            <a:endParaRPr lang="en-FI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1057533680"/>
@@ -639,7 +639,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-SE"/>
+              <a:endParaRPr lang="en-FI"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -671,7 +671,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-SE"/>
+            <a:endParaRPr lang="en-FI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1057531184"/>
@@ -714,7 +714,561 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-SE"/>
+      <a:endParaRPr lang="en-FI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RMSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$4:$M$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>27.674238309065341</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.655003222660195</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.415751681661703</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.887221277235334</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42.822898086893687</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BD92-4999-99EE-3B06E0106CDF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="1057531184"/>
+        <c:axId val="1057533680"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>line</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.11061730115560239"/>
+                  <c:y val="-3.7037037037037077E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Average</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> = 35.5</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.35678030240580189"/>
+                      <c:h val="0.11560185185185186"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-BD92-4999-99EE-3B06E0106CDF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-FI"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$2:$T$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>35.491022515503253</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.491022515503253</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.491022515503253</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.491022515503253</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.491022515503253</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BD92-4999-99EE-3B06E0106CDF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1057531184"/>
+        <c:axId val="1057533680"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1057531184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fi-FI"/>
+                  <a:t>Model</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-FI"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-FI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1057533680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1057533680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="13"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-FI"/>
+                  <a:t>RMSE</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fi-FI"/>
+                  <a:t> meV/atom</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-FI"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-FI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1057531184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-FI"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -726,6 +1280,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1268,6 +1862,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1301,6 +2398,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>538162</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{851DE7EB-0A72-4CF2-8716-1892B88B5AB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1606,10 +2741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AEAF74F-599C-45DC-A89F-88105B6B675F}">
-  <dimension ref="A1:R194"/>
+  <dimension ref="A1:T194"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1617,7 +2752,7 @@
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1661,7 +2796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>112.396484375</v>
       </c>
@@ -1707,8 +2842,11 @@
       <c r="R2">
         <v>16.047510149071226</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T2">
+        <v>35.491022515503253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>9.7575607299804119</v>
       </c>
@@ -1730,8 +2868,11 @@
       <c r="R3">
         <v>16.047510149071226</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T3">
+        <v>35.491022515503253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>-6.4032897949218039</v>
       </c>
@@ -1771,14 +2912,17 @@
         <v>42.822898086893687</v>
       </c>
       <c r="O4">
-        <f t="shared" ref="O3:O4" si="0">AVERAGE(I4:M4)</f>
+        <f t="shared" ref="O4" si="0">AVERAGE(I4:M4)</f>
         <v>35.491022515503253</v>
       </c>
       <c r="R4">
         <v>16.047510149071226</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T4">
+        <v>35.491022515503253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>-20.892845153809006</v>
       </c>
@@ -1797,8 +2941,11 @@
       <c r="R5">
         <v>16.047510149071226</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T5">
+        <v>35.491022515503253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>9.8274230956995723E-2</v>
       </c>
@@ -1817,8 +2964,11 @@
       <c r="R6">
         <v>16.047510149071226</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T6">
+        <v>35.491022515503253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>-11.860763549805</v>
       </c>
@@ -1840,11 +2990,8 @@
       <c r="O7" t="s">
         <v>6</v>
       </c>
-      <c r="R7">
-        <v>16.047510149071226</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>13.893417358397997</v>
       </c>
@@ -1868,11 +3015,8 @@
         <f>2*N8</f>
         <v>2.3150372121540674</v>
       </c>
-      <c r="R8">
-        <v>16.047510149071226</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>0.361343383789062</v>
       </c>
@@ -1895,7 +3039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>-6.2834625244140057</v>
       </c>
@@ -1912,15 +3056,15 @@
         <v>-5.7551498413090059</v>
       </c>
       <c r="N10">
-        <f t="shared" ref="N9:N10" si="1">_xlfn.STDEV.P(I4:M4)</f>
+        <f t="shared" ref="N10" si="1">_xlfn.STDEV.P(I4:M4)</f>
         <v>5.6541794662295874</v>
       </c>
       <c r="O10">
-        <f t="shared" ref="O9:O10" si="2">2*N10</f>
+        <f t="shared" ref="O10" si="2">2*N10</f>
         <v>11.308358932459175</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>346.84626770019469</v>
       </c>
@@ -1937,7 +3081,7 @@
         <v>163.88380432128901</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>-118.78606414794891</v>
       </c>
@@ -1954,7 +3098,7 @@
         <v>-111.33699798583891</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>-57.406311035156989</v>
       </c>
@@ -1971,7 +3115,7 @@
         <v>-38.337112426758011</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>12.485847473143991</v>
       </c>
@@ -1988,7 +3132,7 @@
         <v>12.543052673338991</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>19.186157226561988</v>
       </c>
@@ -2005,7 +3149,7 @@
         <v>15.280120849609006</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>-0.56013488769529829</v>
       </c>
